--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 GE.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>1.33%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>LOGAN T</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>2.27%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>1.37%</t>
   </si>
   <si>
+    <t>5.19%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>17.65%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>ATMO-251</t>
   </si>
   <si>
@@ -157,6 +172,9 @@
     <t>5.26%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>ATMO-335</t>
   </si>
   <si>
@@ -205,6 +223,9 @@
     <t>3.33%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>ATMO-443</t>
   </si>
   <si>
@@ -235,6 +256,9 @@
     <t>17.39%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>ATMO-459</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>0.59%</t>
   </si>
   <si>
+    <t>1.17%</t>
+  </si>
+  <si>
     <t>JEPSON W</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
     <t>1.03%</t>
   </si>
   <si>
+    <t>16.38%</t>
+  </si>
+  <si>
     <t>KOHL E</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
     <t>1.29%</t>
   </si>
   <si>
+    <t>1.28%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -364,6 +397,9 @@
     <t>4.83%</t>
   </si>
   <si>
+    <t>3.44%</t>
+  </si>
+  <si>
     <t>PATZEWITSCH W</t>
   </si>
   <si>
@@ -382,6 +418,9 @@
     <t>0.60%</t>
   </si>
   <si>
+    <t>1.18%</t>
+  </si>
+  <si>
     <t>PETERU S</t>
   </si>
   <si>
@@ -409,6 +448,9 @@
     <t>0.48%</t>
   </si>
   <si>
+    <t>8.43%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -430,6 +472,9 @@
     <t>0.74%</t>
   </si>
   <si>
+    <t>6.55%</t>
+  </si>
+  <si>
     <t>LAFON C</t>
   </si>
   <si>
@@ -445,6 +490,9 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>FRAUENFELD O</t>
   </si>
   <si>
@@ -463,6 +511,9 @@
     <t>4.79%</t>
   </si>
   <si>
+    <t>8.29%</t>
+  </si>
+  <si>
     <t>GUNERALP I</t>
   </si>
   <si>
@@ -481,6 +532,9 @@
     <t>2.36%</t>
   </si>
   <si>
+    <t>8.63%</t>
+  </si>
+  <si>
     <t>GEOG-205</t>
   </si>
   <si>
@@ -502,6 +556,9 @@
     <t>4.70%</t>
   </si>
   <si>
+    <t>6.29%</t>
+  </si>
+  <si>
     <t>GEOG-213</t>
   </si>
   <si>
@@ -520,6 +577,9 @@
     <t>4.22%</t>
   </si>
   <si>
+    <t>1.61%</t>
+  </si>
+  <si>
     <t>GEOG-232</t>
   </si>
   <si>
@@ -538,6 +598,9 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>4.11%</t>
+  </si>
+  <si>
     <t>GEOG-301</t>
   </si>
   <si>
@@ -556,6 +619,9 @@
     <t>1.20%</t>
   </si>
   <si>
+    <t>10.04%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -574,6 +640,9 @@
     <t>3.26%</t>
   </si>
   <si>
+    <t>2.13%</t>
+  </si>
+  <si>
     <t>GEOG-305</t>
   </si>
   <si>
@@ -589,6 +658,9 @@
     <t>1.64%</t>
   </si>
   <si>
+    <t>4.69%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -607,6 +679,9 @@
     <t>9.43%</t>
   </si>
   <si>
+    <t>5.36%</t>
+  </si>
+  <si>
     <t>GEOG-309</t>
   </si>
   <si>
@@ -616,12 +691,12 @@
     <t>53.33%</t>
   </si>
   <si>
-    <t>2.22%</t>
-  </si>
-  <si>
     <t>4.44%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>GEOG-311</t>
   </si>
   <si>
@@ -643,6 +718,9 @@
     <t>2.47%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>GEOG-320</t>
   </si>
   <si>
@@ -658,6 +736,9 @@
     <t>5.66%</t>
   </si>
   <si>
+    <t>7.02%</t>
+  </si>
+  <si>
     <t>GEOG-323</t>
   </si>
   <si>
@@ -676,6 +757,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>GEOG-324</t>
   </si>
   <si>
@@ -700,6 +784,9 @@
     <t>13.73%</t>
   </si>
   <si>
+    <t>15.00%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -712,6 +799,9 @@
     <t>48.89%</t>
   </si>
   <si>
+    <t>8.16%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -724,9 +814,6 @@
     <t>8.33%</t>
   </si>
   <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>GEOG-361</t>
   </si>
   <si>
@@ -763,7 +850,7 @@
     <t>10.64%</t>
   </si>
   <si>
-    <t>2.13%</t>
+    <t>6.00%</t>
   </si>
   <si>
     <t>GEOG-380</t>
@@ -778,9 +865,6 @@
     <t>88.89%</t>
   </si>
   <si>
-    <t>5.56%</t>
-  </si>
-  <si>
     <t>GEOG-390</t>
   </si>
   <si>
@@ -793,6 +877,9 @@
     <t>7.45%</t>
   </si>
   <si>
+    <t>8.74%</t>
+  </si>
+  <si>
     <t>GEOG-404</t>
   </si>
   <si>
@@ -811,9 +898,6 @@
     <t>35.00%</t>
   </si>
   <si>
-    <t>5.00%</t>
-  </si>
-  <si>
     <t>GEOG-450</t>
   </si>
   <si>
@@ -889,6 +973,9 @@
     <t>2.40%</t>
   </si>
   <si>
+    <t>6.72%</t>
+  </si>
+  <si>
     <t>YANCEY T</t>
   </si>
   <si>
@@ -913,6 +1000,9 @@
     <t>22.22%</t>
   </si>
   <si>
+    <t>18.18%</t>
+  </si>
+  <si>
     <t>HOLDER L</t>
   </si>
   <si>
@@ -931,6 +1021,9 @@
     <t>1.41%</t>
   </si>
   <si>
+    <t>4.05%</t>
+  </si>
+  <si>
     <t>SCHROEDER C</t>
   </si>
   <si>
@@ -946,6 +1039,9 @@
     <t>4.20%</t>
   </si>
   <si>
+    <t>6.30%</t>
+  </si>
+  <si>
     <t>GEOL-104</t>
   </si>
   <si>
@@ -961,6 +1057,9 @@
     <t>1.31%</t>
   </si>
   <si>
+    <t>7.83%</t>
+  </si>
+  <si>
     <t>EVERETT M</t>
   </si>
   <si>
@@ -994,6 +1093,9 @@
     <t>0.78%</t>
   </si>
   <si>
+    <t>8.51%</t>
+  </si>
+  <si>
     <t>GEOL-203</t>
   </si>
   <si>
@@ -1012,6 +1114,9 @@
     <t>3.01%</t>
   </si>
   <si>
+    <t>6.99%</t>
+  </si>
+  <si>
     <t>GEOL-285</t>
   </si>
   <si>
@@ -1075,7 +1180,7 @@
     <t>12.90%</t>
   </si>
   <si>
-    <t>1.61%</t>
+    <t>1.59%</t>
   </si>
   <si>
     <t>GEOL-309</t>
@@ -1099,6 +1204,9 @@
     <t>27.45%</t>
   </si>
   <si>
+    <t>7.27%</t>
+  </si>
+  <si>
     <t>GEOL-311</t>
   </si>
   <si>
@@ -1129,6 +1237,9 @@
     <t>7.69%</t>
   </si>
   <si>
+    <t>31.58%</t>
+  </si>
+  <si>
     <t>GEOL-312</t>
   </si>
   <si>
@@ -1147,6 +1258,9 @@
     <t>16.22%</t>
   </si>
   <si>
+    <t>11.90%</t>
+  </si>
+  <si>
     <t>GEOL-330</t>
   </si>
   <si>
@@ -1156,9 +1270,6 @@
     <t>GEOL-352</t>
   </si>
   <si>
-    <t>15.00%</t>
-  </si>
-  <si>
     <t>GEOL-404</t>
   </si>
   <si>
@@ -1174,6 +1285,9 @@
     <t>7.36%</t>
   </si>
   <si>
+    <t>5.23%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
@@ -1213,9 +1327,6 @@
     <t>36.36%</t>
   </si>
   <si>
-    <t>18.18%</t>
-  </si>
-  <si>
     <t>GEOL-624</t>
   </si>
   <si>
@@ -1303,12 +1414,12 @@
     <t>26.19%</t>
   </si>
   <si>
-    <t>11.90%</t>
-  </si>
-  <si>
     <t>2.38%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>GEOP-435</t>
   </si>
   <si>
@@ -1324,7 +1435,7 @@
     <t>16.13%</t>
   </si>
   <si>
-    <t>3.23%</t>
+    <t>8.82%</t>
   </si>
   <si>
     <t>GEOP-491</t>
@@ -1465,9 +1576,6 @@
     <t>22.73%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>GEOS-484</t>
   </si>
   <si>
@@ -1483,6 +1591,9 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>OCNG-251</t>
   </si>
   <si>
@@ -1507,6 +1618,9 @@
     <t>3.54%</t>
   </si>
   <si>
+    <t>4.24%</t>
+  </si>
+  <si>
     <t>EVANS M</t>
   </si>
   <si>
@@ -1531,6 +1645,9 @@
     <t>1.69%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>GARDNER W</t>
   </si>
   <si>
@@ -1549,6 +1666,9 @@
     <t>1.34%</t>
   </si>
   <si>
+    <t>9.70%</t>
+  </si>
+  <si>
     <t>GIESE B</t>
   </si>
   <si>
@@ -1561,6 +1681,9 @@
     <t>10.32%</t>
   </si>
   <si>
+    <t>0.64%</t>
+  </si>
+  <si>
     <t>WIEDERWOHL C</t>
   </si>
   <si>
@@ -1576,6 +1699,9 @@
     <t>1.10%</t>
   </si>
   <si>
+    <t>5.21%</t>
+  </si>
+  <si>
     <t>35.09%</t>
   </si>
   <si>
@@ -1585,6 +1711,9 @@
     <t>8.77%</t>
   </si>
   <si>
+    <t>13.64%</t>
+  </si>
+  <si>
     <t>OCNG-252</t>
   </si>
   <si>
@@ -1603,6 +1732,9 @@
     <t>0.63%</t>
   </si>
   <si>
+    <t>2.91%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1640,9 +1772,6 @@
   </si>
   <si>
     <t>63.64%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
   </si>
   <si>
     <t>OCNG-489</t>
@@ -1737,12 +1866,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2036,15 +2164,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2069,4056 +2197,4515 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.0145</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.6417</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>3.75</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>3.136</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>3.2136</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>3.235</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>3.2125</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
         <v>2.947</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
         <v>3.16</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>3.277</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
         <v>2.667</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
         <v>2.895</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C33" t="n">
         <v>2.696</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C36" t="n">
         <v>3.476</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C42" t="n">
         <v>3.25</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C48" t="n">
         <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C51" t="n">
         <v>3.722</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C54" t="n">
         <v>3.32</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C55" t="n">
         <v>2.763</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C56" t="n">
         <v>3.1555</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C59" t="n">
         <v>3.185</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C60" t="n">
         <v>3.016</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C61" t="n">
         <v>2.95</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C62" t="n">
         <v>2.77</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C65" t="n">
         <v>3.274</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C66" t="n">
         <v>2.922</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C67" t="n">
         <v>2.676</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C68" t="n">
         <v>2.654</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G68" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="I68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C71" t="n">
         <v>2.866</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G71" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C74" t="n">
         <v>3.2067</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C77" t="n">
         <v>3.0775</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C80" t="n">
         <v>2.861</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G80" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="H80" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C83" t="n">
         <v>2.783</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G83" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C86" t="n">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="H86" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C89" t="n">
         <v>2.736</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C92" t="n">
         <v>2.852</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G92" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I92" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C95" t="n">
         <v>2.667</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C98" t="n">
         <v>2.528</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G98" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C101" t="n">
         <v>2.875</v>
       </c>
       <c r="D101" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C104" t="n">
         <v>2.412</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H104" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C107" t="n">
         <v>2.726</v>
       </c>
       <c r="D107" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="E107" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="F107" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G107" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C110" t="n">
         <v>2.622</v>
       </c>
       <c r="D110" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E110" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G110" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H110" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C113" t="n">
         <v>3.333</v>
       </c>
       <c r="D113" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F113" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C116" t="n">
         <v>2.743</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F116" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="H116" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C119" t="n">
         <v>2.83</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="F119" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G119" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="H119" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C122" t="n">
         <v>3.824</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C123" t="n">
         <v>3.833</v>
       </c>
       <c r="D123" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C126" t="n">
         <v>3.0192</v>
       </c>
       <c r="D126" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E126" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F126" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G126" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="H126" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I126" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C129" t="n">
         <v>3.2</v>
       </c>
       <c r="D129" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F129" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G129" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C132" t="n">
         <v>2.9335</v>
       </c>
       <c r="D132" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E132" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G132" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="H132" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C135" t="n">
         <v>3.529</v>
       </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C138" t="n">
         <v>2.706</v>
       </c>
       <c r="D138" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F138" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H138" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C150" t="n">
         <v>3.8</v>
       </c>
       <c r="D150" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C153" t="n">
         <v>3.667</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E153" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C156" t="n">
         <v>3.875</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E156" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C159" t="n">
         <v>3.8</v>
       </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C162" t="n">
         <v>3.5</v>
       </c>
       <c r="D162" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E165" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I165" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C168" t="n">
         <v>2.7051</v>
       </c>
       <c r="D168" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E168" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="G168" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H168" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="I168" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C169" t="n">
         <v>2.9023</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G169" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="H169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I169" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="C170" t="n">
         <v>3.778</v>
       </c>
       <c r="D170" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E170" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I170" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C171" t="n">
         <v>2.8203</v>
       </c>
       <c r="D171" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E171" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="G171" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="H171" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>334</v>
+      </c>
+      <c r="I171" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C172" t="n">
         <v>2.6134</v>
       </c>
       <c r="D172" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="E172" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="G172" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="H172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C175" t="n">
         <v>3.0097</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E175" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="H175" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>346</v>
+      </c>
+      <c r="I175" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C176" t="n">
         <v>2.9864</v>
       </c>
       <c r="D176" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="F176" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G176" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="H176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="B179" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>291</v>
       </c>
       <c r="C179" t="n">
         <v>2.7092</v>
       </c>
       <c r="D179" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E179" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="G179" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="H179" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="C182" t="n">
         <v>2.3473</v>
       </c>
       <c r="D182" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E182" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="F182" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G182" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H182" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>365</v>
+      </c>
+      <c r="I182" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C185" t="n">
         <v>3.921</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H185" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="C188" t="n">
         <v>2.6987</v>
       </c>
       <c r="D188" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="E188" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F188" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G188" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>375</v>
+      </c>
+      <c r="I188" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C191" t="n">
         <v>2.2109</v>
       </c>
       <c r="D191" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="E191" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="G191" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="H191" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>382</v>
+      </c>
+      <c r="I191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C194" t="n">
         <v>3.0475</v>
       </c>
       <c r="D194" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="E194" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="F194" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="G194" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="H194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I194" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C197" t="n">
         <v>2.7893</v>
       </c>
       <c r="D197" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G197" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C200" t="n">
         <v>2.569</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F200" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="G200" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="H200" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>375</v>
+      </c>
+      <c r="I200" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C203" t="n">
         <v>3.737</v>
       </c>
       <c r="D203" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H203" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C204" t="n">
         <v>3.316</v>
       </c>
       <c r="D204" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E204" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I204" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C205" t="n">
         <v>3.154</v>
       </c>
       <c r="D205" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="E205" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G205" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="H205" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>406</v>
+      </c>
+      <c r="I205" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C206" t="n">
         <v>3.45</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E206" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="F206" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G206" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H206" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I206" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C209" t="n">
         <v>2.6007</v>
       </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="E209" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="G209" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I209" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H212" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C215" t="n">
         <v>3.45</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E215" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="G215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H215" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C218" t="n">
         <v>3.245</v>
       </c>
       <c r="D218" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="E218" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="G218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H218" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I218" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C221" t="n">
         <v>3.0155</v>
       </c>
       <c r="D221" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E221" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F221" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="G221" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="H221" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I221" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C224" t="n">
         <v>3.3535</v>
       </c>
       <c r="D224" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="E224" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="G224" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H224" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C227" t="n">
         <v>3.941</v>
       </c>
       <c r="D227" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="E227" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G227" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H227" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C230" t="n">
         <v>3.273</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="G230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="C233" t="n">
         <v>3.944</v>
       </c>
       <c r="D233" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="E233" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C236" t="n">
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H236" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I236" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="C239" t="n">
         <v>3.546</v>
       </c>
       <c r="D239" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G239" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H239" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C242" t="n">
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E242" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F242" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G242" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H242" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I242" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C245" t="n">
         <v>3.688</v>
       </c>
       <c r="D245" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="E245" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G245" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H245" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I245" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G248" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H248" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I248" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C249" t="n">
         <v>3.833</v>
       </c>
       <c r="D249" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="E249" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I249" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="C252" t="n">
         <v>3.4495</v>
       </c>
       <c r="D252" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="E252" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="F252" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="G252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="C255" t="n">
         <v>3.333</v>
       </c>
       <c r="D255" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="E255" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F255" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H255" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="I255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="C258" t="n">
         <v>3.4193</v>
       </c>
       <c r="D258" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="E258" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="F258" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G258" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H258" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>466</v>
+      </c>
+      <c r="I258" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="C261" t="n">
         <v>2.994</v>
       </c>
       <c r="D261" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="E261" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="F261" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="G261" t="s">
-        <v>436</v>
+        <v>16</v>
       </c>
       <c r="H261" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I261" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C264" t="n">
         <v>4</v>
       </c>
       <c r="D264" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E264" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G264" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H264" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I264" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="C267" t="n">
         <v>3.824</v>
       </c>
       <c r="D267" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="E267" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H267" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I267" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C270" t="n">
         <v>3.667</v>
       </c>
       <c r="D270" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E270" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F270" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G270" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H270" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I270" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="C273" t="n">
         <v>3.5</v>
       </c>
       <c r="D273" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E273" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H273" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I273" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="C276" t="n">
         <v>4</v>
       </c>
       <c r="D276" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E276" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F276" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G276" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H276" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="C279" t="n">
         <v>3.75</v>
       </c>
       <c r="D279" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="E279" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G279" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H279" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>485</v>
+      </c>
+      <c r="I279" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="C280" t="n">
         <v>3.5</v>
       </c>
       <c r="D280" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E280" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H280" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I280" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C281" t="n">
         <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E281" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G281" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H281" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C282" t="n">
         <v>3.786</v>
       </c>
       <c r="D282" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="E282" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="F282" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G282" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H282" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I282" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="C283" t="n">
         <v>3.375</v>
       </c>
       <c r="D283" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="E283" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="F283" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="G283" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="H283" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I283" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C284" t="n">
         <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H284" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I284" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="C285" t="n">
         <v>3.812</v>
       </c>
       <c r="D285" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E285" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F285" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="G285" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H285" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I285" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C286" t="n">
         <v>3.55</v>
       </c>
       <c r="D286" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E286" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G286" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="H286" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I286" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C287" t="n">
         <v>3.8</v>
       </c>
       <c r="D287" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E287" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H287" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I287" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C288" t="n">
         <v>3.9815</v>
       </c>
       <c r="D288" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="E288" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="F288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H288" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I288" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C289" t="n">
         <v>4</v>
       </c>
       <c r="D289" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E289" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G289" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H289" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I289" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C290" t="n">
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E290" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F290" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G290" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I290" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C293" t="n">
         <v>2.632</v>
       </c>
       <c r="D293" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="E293" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="F293" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="G293" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H293" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>499</v>
+      </c>
+      <c r="I293" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="C296" t="n">
         <v>2.836</v>
       </c>
       <c r="D296" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="E296" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F296" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="G296" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H296" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I296" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="C299" t="n">
         <v>3.312</v>
       </c>
       <c r="D299" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E299" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="F299" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G299" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H299" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>485</v>
+      </c>
+      <c r="I299" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="C302" t="n">
         <v>3.8</v>
       </c>
       <c r="D302" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="E302" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="F302" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G302" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I302" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C303" t="n">
         <v>3.083</v>
       </c>
       <c r="D303" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E303" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="F303" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G303" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H303" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I303" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="C304" t="n">
         <v>3.133</v>
       </c>
       <c r="D304" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="E304" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F304" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G304" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H304" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I304" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="C307" t="n">
         <v>2.55</v>
       </c>
       <c r="D307" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E307" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="F307" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="G307" t="s">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="H307" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="I307" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C310" t="n">
         <v>3.182</v>
       </c>
       <c r="D310" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="E310" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="F310" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="G310" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H310" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>467</v>
+      </c>
+      <c r="I310" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C313" t="n">
         <v>4</v>
       </c>
       <c r="D313" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E313" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G313" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I313" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="C316" t="n">
         <v>3.333</v>
       </c>
       <c r="D316" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="E316" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="F316" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G316" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="H316" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>524</v>
+      </c>
+      <c r="I316" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="C319" t="n">
         <v>3.242</v>
       </c>
       <c r="D319" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E319" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="F319" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G319" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="H319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I319" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="C320" t="n">
         <v>3.121</v>
       </c>
       <c r="D320" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="E320" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="F320" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="G320" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="H320" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>533</v>
+      </c>
+      <c r="I320" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="C321" t="n">
         <v>2.822</v>
       </c>
       <c r="D321" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="E321" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="F321" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="G321" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H321" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I321" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="C322" t="n">
         <v>3.356</v>
       </c>
       <c r="D322" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="E322" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F322" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
       <c r="G322" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="H322" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I322" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="C323" t="n">
         <v>2.736</v>
       </c>
       <c r="D323" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="E323" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="F323" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="G323" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="H323" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>549</v>
+      </c>
+      <c r="I323" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="C324" t="n">
         <v>3.382</v>
       </c>
       <c r="D324" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="E324" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="F324" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="G324" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H324" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I324" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="C325" t="n">
         <v>3.143</v>
       </c>
       <c r="D325" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E325" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="F325" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="G325" t="s">
+        <v>559</v>
+      </c>
+      <c r="H325" t="s">
+        <v>560</v>
+      </c>
+      <c r="I325" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="B326" t="s">
         <v>518</v>
-      </c>
-      <c r="H325" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="B326" t="s">
-        <v>481</v>
       </c>
       <c r="C326" t="n">
         <v>2.228</v>
       </c>
       <c r="D326" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="E326" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="F326" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="G326" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H326" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>564</v>
+      </c>
+      <c r="I326" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="C329" t="n">
         <v>3.6016</v>
       </c>
       <c r="D329" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="E329" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="F329" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="G329" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="H329" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>571</v>
+      </c>
+      <c r="I329" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C332" t="n">
         <v>3.5625</v>
       </c>
       <c r="D332" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="E332" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F332" t="s">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="G332" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="H332" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I332" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="C335" t="n">
         <v>3.118</v>
       </c>
       <c r="D335" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E335" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="F335" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G335" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H335" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I335" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C338" t="n">
         <v>3.21</v>
       </c>
       <c r="D338" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E338" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F338" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="G338" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H338" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I338" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E341" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="F341" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G341" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H341" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I341" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C344" t="n">
         <v>3.4665</v>
       </c>
       <c r="D344" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="E344" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F344" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G344" t="s">
-        <v>542</v>
+        <v>69</v>
       </c>
       <c r="H344" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I344" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="C347" t="n">
         <v>3.778</v>
       </c>
       <c r="D347" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E347" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F347" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G347" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H347" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I347" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="C350" t="n">
         <v>3.857</v>
       </c>
       <c r="D350" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="F350" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G350" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H350" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I350" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="C353" t="n">
         <v>3.333</v>
       </c>
       <c r="D353" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="E353" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F353" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G353" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H353" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I353" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="C356" t="n">
         <v>3.143</v>
       </c>
       <c r="D356" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E356" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F356" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G356" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="H356" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I356" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="C359" t="n">
         <v>2.4765</v>
       </c>
       <c r="D359" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E359" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="F359" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="G359" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H359" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>485</v>
+      </c>
+      <c r="I359" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="B362" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="C362" t="n">
         <v>3.889</v>
       </c>
       <c r="D362" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E362" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="F362" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G362" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H362" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I362" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="B365" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="C365" t="n">
         <v>3.833</v>
       </c>
       <c r="D365" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="E365" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F365" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G365" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H365" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I365" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="B368" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="C368" t="n">
         <v>4</v>
       </c>
       <c r="D368" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E368" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F368" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G368" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H368" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I368" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="B371" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="C371" t="n">
         <v>4</v>
       </c>
       <c r="D371" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E371" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F371" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G371" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H371" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I371" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="B374" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="C374" t="n">
         <v>4</v>
       </c>
       <c r="D374" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E374" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F374" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G374" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H374" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I374" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 GE.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>Course</t>
   </si>
@@ -793,15 +793,21 @@
     <t>7.45%</t>
   </si>
   <si>
+    <t>GEOG-401</t>
+  </si>
+  <si>
+    <t>REILLY K</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
     <t>GEOG-404</t>
   </si>
   <si>
     <t>46.67%</t>
   </si>
   <si>
-    <t>13.33%</t>
-  </si>
-  <si>
     <t>6.67%</t>
   </si>
   <si>
@@ -1559,6 +1565,24 @@
   </si>
   <si>
     <t>10.32%</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>56.68%</t>
+  </si>
+  <si>
+    <t>34.76%</t>
+  </si>
+  <si>
+    <t>6.95%</t>
+  </si>
+  <si>
+    <t>0.53%</t>
+  </si>
+  <si>
+    <t>1.07%</t>
   </si>
   <si>
     <t>WIEDERWOHL C</t>
@@ -2036,7 +2060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H374"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3417,81 +3441,81 @@
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="C129" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D129" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="E129" t="s">
         <v>61</v>
       </c>
       <c r="F129" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" t="s">
         <v>261</v>
       </c>
-      <c r="G129" t="s">
-        <v>262</v>
-      </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C132" t="n">
-        <v>2.9335</v>
+        <v>3.2</v>
       </c>
       <c r="D132" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" t="s">
+        <v>261</v>
+      </c>
+      <c r="G132" t="s">
         <v>264</v>
       </c>
-      <c r="E132" t="s">
-        <v>264</v>
-      </c>
-      <c r="F132" t="s">
-        <v>51</v>
-      </c>
-      <c r="G132" t="s">
-        <v>265</v>
-      </c>
       <c r="H132" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C135" t="n">
-        <v>3.529</v>
+        <v>2.9335</v>
       </c>
       <c r="D135" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
+        <v>51</v>
+      </c>
+      <c r="G135" t="s">
         <v>267</v>
       </c>
-      <c r="E135" t="s">
-        <v>36</v>
-      </c>
-      <c r="F135" t="s">
-        <v>222</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3501,25 +3525,25 @@
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D138" t="s">
         <v>269</v>
       </c>
-      <c r="C138" t="n">
-        <v>2.706</v>
-      </c>
-      <c r="D138" t="s">
-        <v>222</v>
-      </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
         <v>222</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -3529,35 +3553,35 @@
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>2.706</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
@@ -3580,12 +3604,12 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
@@ -3613,16 +3637,16 @@
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="C150" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
@@ -3641,16 +3665,16 @@
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="C153" t="n">
-        <v>3.667</v>
+        <v>3.8</v>
       </c>
       <c r="D153" t="s">
         <v>277</v>
       </c>
       <c r="E153" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -3669,16 +3693,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="B156" t="s">
+        <v>238</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D156" t="s">
         <v>279</v>
       </c>
-      <c r="C156" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D156" t="s">
-        <v>280</v>
-      </c>
       <c r="E156" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
@@ -3692,21 +3716,21 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="C159" t="n">
-        <v>3.8</v>
+        <v>3.875</v>
       </c>
       <c r="D159" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F159" t="s">
         <v>19</v>
@@ -3720,21 +3744,21 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C162" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D162" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
         <v>19</v>
@@ -3748,21 +3772,21 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
@@ -3776,366 +3800,366 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C168" t="n">
-        <v>2.7051</v>
+        <v>4</v>
       </c>
       <c r="D168" t="s">
+        <v>78</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
         <v>286</v>
-      </c>
-      <c r="E168" t="s">
-        <v>287</v>
-      </c>
-      <c r="F168" t="s">
-        <v>288</v>
-      </c>
-      <c r="G168" t="s">
-        <v>289</v>
-      </c>
-      <c r="H168" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>291</v>
-      </c>
-      <c r="C169" t="n">
-        <v>2.9023</v>
-      </c>
-      <c r="D169" t="s">
-        <v>292</v>
-      </c>
-      <c r="E169" t="s">
-        <v>293</v>
-      </c>
-      <c r="F169" t="s">
-        <v>292</v>
-      </c>
-      <c r="G169" t="s">
-        <v>294</v>
-      </c>
-      <c r="H169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>296</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D170" t="s">
-        <v>297</v>
-      </c>
-      <c r="E170" t="s">
-        <v>298</v>
-      </c>
-      <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
-      <c r="H170" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C171" t="n">
-        <v>2.8203</v>
+        <v>2.7051</v>
       </c>
       <c r="D171" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E171" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F171" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G171" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H171" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
+        <v>293</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.9023</v>
+      </c>
+      <c r="D172" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" t="s">
+        <v>295</v>
+      </c>
+      <c r="F172" t="s">
+        <v>294</v>
+      </c>
+      <c r="G172" t="s">
+        <v>296</v>
+      </c>
+      <c r="H172" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D173" t="s">
+        <v>299</v>
+      </c>
+      <c r="E173" t="s">
+        <v>300</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>301</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.8203</v>
+      </c>
+      <c r="D174" t="s">
+        <v>302</v>
+      </c>
+      <c r="E174" t="s">
+        <v>303</v>
+      </c>
+      <c r="F174" t="s">
+        <v>304</v>
+      </c>
+      <c r="G174" t="s">
         <v>305</v>
       </c>
-      <c r="C172" t="n">
-        <v>2.6134</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="H174" t="s">
         <v>306</v>
-      </c>
-      <c r="E172" t="s">
-        <v>307</v>
-      </c>
-      <c r="F172" t="s">
-        <v>308</v>
-      </c>
-      <c r="G172" t="s">
-        <v>309</v>
-      </c>
-      <c r="H172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.6134</v>
+      </c>
+      <c r="D175" t="s">
+        <v>308</v>
+      </c>
+      <c r="E175" t="s">
+        <v>309</v>
+      </c>
+      <c r="F175" t="s">
+        <v>310</v>
+      </c>
+      <c r="G175" t="s">
         <v>311</v>
       </c>
-      <c r="C175" t="n">
+      <c r="H175" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>313</v>
+      </c>
+      <c r="C178" t="n">
         <v>3.0097</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D178" t="s">
         <v>221</v>
       </c>
-      <c r="E175" t="s">
-        <v>312</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="E178" t="s">
+        <v>314</v>
+      </c>
+      <c r="F178" t="s">
         <v>31</v>
       </c>
-      <c r="G175" t="s">
-        <v>313</v>
-      </c>
-      <c r="H175" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
+      <c r="G178" t="s">
         <v>315</v>
       </c>
-      <c r="C176" t="n">
-        <v>2.9864</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="H178" t="s">
         <v>316</v>
-      </c>
-      <c r="E176" t="s">
-        <v>317</v>
-      </c>
-      <c r="F176" t="s">
-        <v>318</v>
-      </c>
-      <c r="G176" t="s">
-        <v>319</v>
-      </c>
-      <c r="H176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C179" t="n">
-        <v>2.7092</v>
+        <v>2.9864</v>
       </c>
       <c r="D179" t="s">
+        <v>318</v>
+      </c>
+      <c r="E179" t="s">
+        <v>319</v>
+      </c>
+      <c r="F179" t="s">
+        <v>320</v>
+      </c>
+      <c r="G179" t="s">
         <v>321</v>
       </c>
-      <c r="E179" t="s">
-        <v>322</v>
-      </c>
-      <c r="F179" t="s">
-        <v>323</v>
-      </c>
-      <c r="G179" t="s">
-        <v>324</v>
-      </c>
       <c r="H179" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.7092</v>
+      </c>
+      <c r="D182" t="s">
+        <v>323</v>
+      </c>
+      <c r="E182" t="s">
+        <v>324</v>
+      </c>
+      <c r="F182" t="s">
+        <v>325</v>
+      </c>
+      <c r="G182" t="s">
+        <v>326</v>
+      </c>
+      <c r="H182" t="s">
         <v>327</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.3473</v>
-      </c>
-      <c r="D182" t="s">
-        <v>45</v>
-      </c>
-      <c r="E182" t="s">
-        <v>328</v>
-      </c>
-      <c r="F182" t="s">
-        <v>329</v>
-      </c>
-      <c r="G182" t="s">
-        <v>330</v>
-      </c>
-      <c r="H182" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
+        <v>329</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.3473</v>
+      </c>
+      <c r="D185" t="s">
+        <v>45</v>
+      </c>
+      <c r="E185" t="s">
+        <v>330</v>
+      </c>
+      <c r="F185" t="s">
+        <v>331</v>
+      </c>
+      <c r="G185" t="s">
+        <v>332</v>
+      </c>
+      <c r="H185" t="s">
         <v>333</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="D185" t="s">
-        <v>334</v>
-      </c>
-      <c r="E185" t="s">
-        <v>335</v>
-      </c>
-      <c r="F185" t="s">
-        <v>336</v>
-      </c>
-      <c r="G185" t="s">
-        <v>19</v>
-      </c>
-      <c r="H185" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
+        <v>335</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="D188" t="s">
+        <v>336</v>
+      </c>
+      <c r="E188" t="s">
+        <v>337</v>
+      </c>
+      <c r="F188" t="s">
         <v>338</v>
       </c>
-      <c r="C188" t="n">
-        <v>2.6987</v>
-      </c>
-      <c r="D188" t="s">
-        <v>224</v>
-      </c>
-      <c r="E188" t="s">
-        <v>140</v>
-      </c>
-      <c r="F188" t="s">
-        <v>221</v>
-      </c>
       <c r="G188" t="s">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="H188" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
+        <v>340</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.6987</v>
+      </c>
+      <c r="D191" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" t="s">
+        <v>140</v>
+      </c>
+      <c r="F191" t="s">
+        <v>221</v>
+      </c>
+      <c r="G191" t="s">
+        <v>341</v>
+      </c>
+      <c r="H191" t="s">
         <v>342</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.2109</v>
-      </c>
-      <c r="D191" t="s">
-        <v>343</v>
-      </c>
-      <c r="E191" t="s">
-        <v>344</v>
-      </c>
-      <c r="F191" t="s">
-        <v>345</v>
-      </c>
-      <c r="G191" t="s">
-        <v>346</v>
-      </c>
-      <c r="H191" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
+        <v>344</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.2109</v>
+      </c>
+      <c r="D194" t="s">
+        <v>345</v>
+      </c>
+      <c r="E194" t="s">
+        <v>346</v>
+      </c>
+      <c r="F194" t="s">
+        <v>347</v>
+      </c>
+      <c r="G194" t="s">
+        <v>348</v>
+      </c>
+      <c r="H194" t="s">
         <v>349</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.0475</v>
-      </c>
-      <c r="D194" t="s">
-        <v>350</v>
-      </c>
-      <c r="E194" t="s">
-        <v>351</v>
-      </c>
-      <c r="F194" t="s">
-        <v>352</v>
-      </c>
-      <c r="G194" t="s">
-        <v>353</v>
-      </c>
-      <c r="H194" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
+        <v>351</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.0475</v>
+      </c>
+      <c r="D197" t="s">
+        <v>352</v>
+      </c>
+      <c r="E197" t="s">
+        <v>353</v>
+      </c>
+      <c r="F197" t="s">
+        <v>354</v>
+      </c>
+      <c r="G197" t="s">
         <v>355</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.7893</v>
-      </c>
-      <c r="D197" t="s">
-        <v>356</v>
-      </c>
-      <c r="E197" t="s">
-        <v>40</v>
-      </c>
-      <c r="F197" t="s">
-        <v>357</v>
-      </c>
-      <c r="G197" t="s">
-        <v>358</v>
       </c>
       <c r="H197" t="s">
         <v>19</v>
@@ -4143,30 +4167,30 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C200" t="n">
-        <v>2.569</v>
+        <v>2.7893</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
+        <v>359</v>
+      </c>
+      <c r="G200" t="s">
         <v>360</v>
       </c>
-      <c r="G200" t="s">
-        <v>227</v>
-      </c>
       <c r="H200" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -4176,119 +4200,119 @@
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
+        <v>335</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="D203" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" t="s">
+        <v>140</v>
+      </c>
+      <c r="F203" t="s">
         <v>362</v>
       </c>
-      <c r="C203" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="G203" t="s">
+        <v>227</v>
+      </c>
+      <c r="H203" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
         <v>363</v>
-      </c>
-      <c r="E203" t="s">
-        <v>46</v>
-      </c>
-      <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
-      <c r="H203" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>364</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.316</v>
-      </c>
-      <c r="D204" t="s">
-        <v>66</v>
-      </c>
-      <c r="E204" t="s">
-        <v>365</v>
-      </c>
-      <c r="F204" t="s">
-        <v>366</v>
-      </c>
-      <c r="G204" t="s">
-        <v>19</v>
-      </c>
-      <c r="H204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>367</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="D205" t="s">
-        <v>368</v>
-      </c>
-      <c r="E205" t="s">
-        <v>369</v>
-      </c>
-      <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>370</v>
-      </c>
-      <c r="H205" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="C206" t="n">
-        <v>3.45</v>
+        <v>3.737</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="E206" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="G206" t="s">
         <v>19</v>
       </c>
       <c r="H206" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>366</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="D207" t="s">
+        <v>66</v>
+      </c>
+      <c r="E207" t="s">
+        <v>367</v>
+      </c>
+      <c r="F207" t="s">
+        <v>368</v>
+      </c>
+      <c r="G207" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
+        <v>369</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="D208" t="s">
+        <v>370</v>
+      </c>
+      <c r="E208" t="s">
         <v>371</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>372</v>
+      </c>
+      <c r="H208" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="B209" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="C209" t="n">
-        <v>2.6007</v>
+        <v>3.45</v>
       </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="E209" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="F209" t="s">
-        <v>375</v>
+        <v>124</v>
       </c>
       <c r="G209" t="s">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="H209" t="s">
         <v>19</v>
@@ -4296,27 +4320,27 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
+        <v>374</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.6007</v>
+      </c>
+      <c r="D212" t="s">
+        <v>375</v>
+      </c>
+      <c r="E212" t="s">
+        <v>376</v>
+      </c>
+      <c r="F212" t="s">
+        <v>377</v>
+      </c>
+      <c r="G212" t="s">
         <v>378</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4</v>
-      </c>
-      <c r="D212" t="s">
-        <v>78</v>
-      </c>
-      <c r="E212" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>19</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -4329,19 +4353,19 @@
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="C215" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E215" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F215" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="G215" t="s">
         <v>19</v>
@@ -4357,19 +4381,19 @@
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
+        <v>233</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D218" t="s">
+        <v>85</v>
+      </c>
+      <c r="E218" t="s">
+        <v>26</v>
+      </c>
+      <c r="F218" t="s">
         <v>382</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.245</v>
-      </c>
-      <c r="D218" t="s">
-        <v>383</v>
-      </c>
-      <c r="E218" t="s">
-        <v>384</v>
-      </c>
-      <c r="F218" t="s">
-        <v>385</v>
       </c>
       <c r="G218" t="s">
         <v>19</v>
@@ -4380,80 +4404,80 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
+        <v>384</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.245</v>
+      </c>
+      <c r="D221" t="s">
+        <v>385</v>
+      </c>
+      <c r="E221" t="s">
+        <v>386</v>
+      </c>
+      <c r="F221" t="s">
         <v>387</v>
       </c>
-      <c r="C221" t="n">
-        <v>3.0155</v>
-      </c>
-      <c r="D221" t="s">
-        <v>55</v>
-      </c>
-      <c r="E221" t="s">
-        <v>55</v>
-      </c>
-      <c r="F221" t="s">
-        <v>388</v>
-      </c>
       <c r="G221" t="s">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="H221" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
+        <v>389</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.0155</v>
+      </c>
+      <c r="D224" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" t="s">
+        <v>55</v>
+      </c>
+      <c r="F224" t="s">
+        <v>390</v>
+      </c>
+      <c r="G224" t="s">
         <v>391</v>
       </c>
-      <c r="C224" t="n">
-        <v>3.3535</v>
-      </c>
-      <c r="D224" t="s">
-        <v>392</v>
-      </c>
-      <c r="E224" t="s">
-        <v>393</v>
-      </c>
-      <c r="F224" t="s">
-        <v>394</v>
-      </c>
-      <c r="G224" t="s">
-        <v>19</v>
-      </c>
       <c r="H224" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="B227" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C227" t="n">
-        <v>3.941</v>
+        <v>3.3535</v>
       </c>
       <c r="D227" t="s">
+        <v>394</v>
+      </c>
+      <c r="E227" t="s">
+        <v>395</v>
+      </c>
+      <c r="F227" t="s">
         <v>396</v>
-      </c>
-      <c r="E227" t="s">
-        <v>23</v>
-      </c>
-      <c r="F227" t="s">
-        <v>19</v>
       </c>
       <c r="G227" t="s">
         <v>19</v>
@@ -4469,19 +4493,19 @@
     </row>
     <row r="230" spans="1:8">
       <c r="B230" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C230" t="n">
-        <v>3.273</v>
+        <v>3.941</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>398</v>
       </c>
       <c r="E230" t="s">
-        <v>398</v>
+        <v>23</v>
       </c>
       <c r="F230" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="G230" t="s">
         <v>19</v>
@@ -4492,24 +4516,24 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
+        <v>389</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="D233" t="s">
+        <v>25</v>
+      </c>
+      <c r="E233" t="s">
+        <v>400</v>
+      </c>
+      <c r="F233" t="s">
         <v>401</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D233" t="s">
-        <v>402</v>
-      </c>
-      <c r="E233" t="s">
-        <v>254</v>
-      </c>
-      <c r="F233" t="s">
-        <v>19</v>
       </c>
       <c r="G233" t="s">
         <v>19</v>
@@ -4520,21 +4544,21 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="B236" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>3.944</v>
       </c>
       <c r="D236" t="s">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="E236" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -4548,21 +4572,21 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="B239" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C239" t="n">
-        <v>3.546</v>
+        <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -4576,21 +4600,21 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="B242" t="s">
+        <v>407</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D242" t="s">
         <v>408</v>
       </c>
-      <c r="C242" t="n">
-        <v>4</v>
-      </c>
-      <c r="D242" t="s">
-        <v>78</v>
-      </c>
       <c r="E242" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -4609,16 +4633,16 @@
     </row>
     <row r="245" spans="1:8">
       <c r="B245" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="C245" t="n">
-        <v>3.688</v>
+        <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="E245" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="F245" t="s">
         <v>19</v>
@@ -4632,75 +4656,75 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="B248" t="s">
+        <v>380</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="D248" t="s">
+        <v>412</v>
+      </c>
+      <c r="E248" t="s">
         <v>413</v>
       </c>
-      <c r="C248" t="n">
+      <c r="F248" t="s">
+        <v>19</v>
+      </c>
+      <c r="G248" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>415</v>
+      </c>
+      <c r="C251" t="n">
         <v>4</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D251" t="s">
         <v>78</v>
       </c>
-      <c r="E248" t="s">
-        <v>19</v>
-      </c>
-      <c r="F248" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" t="s">
-        <v>19</v>
-      </c>
-      <c r="H248" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="B249" t="s">
-        <v>391</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D249" t="s">
-        <v>414</v>
-      </c>
-      <c r="E249" t="s">
-        <v>60</v>
-      </c>
-      <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
-      <c r="H249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>415</v>
+      <c r="E251" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" t="s">
+        <v>19</v>
+      </c>
+      <c r="G251" t="s">
+        <v>19</v>
+      </c>
+      <c r="H251" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="B252" t="s">
+        <v>393</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D252" t="s">
         <v>416</v>
       </c>
-      <c r="C252" t="n">
-        <v>3.4495</v>
-      </c>
-      <c r="D252" t="s">
-        <v>417</v>
-      </c>
       <c r="E252" t="s">
-        <v>418</v>
+        <v>60</v>
       </c>
       <c r="F252" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
@@ -4711,111 +4735,111 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="B255" t="s">
+        <v>418</v>
+      </c>
+      <c r="C255" t="n">
+        <v>3.4495</v>
+      </c>
+      <c r="D255" t="s">
+        <v>419</v>
+      </c>
+      <c r="E255" t="s">
+        <v>420</v>
+      </c>
+      <c r="F255" t="s">
         <v>421</v>
       </c>
-      <c r="C255" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D255" t="s">
-        <v>422</v>
-      </c>
-      <c r="E255" t="s">
-        <v>423</v>
-      </c>
-      <c r="F255" t="s">
-        <v>254</v>
-      </c>
       <c r="G255" t="s">
         <v>19</v>
       </c>
       <c r="H255" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="B258" t="s">
+        <v>423</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D258" t="s">
+        <v>424</v>
+      </c>
+      <c r="E258" t="s">
+        <v>425</v>
+      </c>
+      <c r="F258" t="s">
+        <v>254</v>
+      </c>
+      <c r="G258" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" t="s">
         <v>426</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3.4193</v>
-      </c>
-      <c r="D258" t="s">
-        <v>427</v>
-      </c>
-      <c r="E258" t="s">
-        <v>428</v>
-      </c>
-      <c r="F258" t="s">
-        <v>429</v>
-      </c>
-      <c r="G258" t="s">
-        <v>19</v>
-      </c>
-      <c r="H258" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="B261" t="s">
+        <v>428</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.4193</v>
+      </c>
+      <c r="D261" t="s">
+        <v>429</v>
+      </c>
+      <c r="E261" t="s">
+        <v>430</v>
+      </c>
+      <c r="F261" t="s">
+        <v>431</v>
+      </c>
+      <c r="G261" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" t="s">
         <v>432</v>
-      </c>
-      <c r="C261" t="n">
-        <v>2.994</v>
-      </c>
-      <c r="D261" t="s">
-        <v>433</v>
-      </c>
-      <c r="E261" t="s">
-        <v>434</v>
-      </c>
-      <c r="F261" t="s">
-        <v>435</v>
-      </c>
-      <c r="G261" t="s">
-        <v>436</v>
-      </c>
-      <c r="H261" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="C264" t="n">
-        <v>4</v>
+        <v>2.994</v>
       </c>
       <c r="D264" t="s">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="E264" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="G264" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
@@ -4823,21 +4847,21 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="B267" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="C267" t="n">
-        <v>3.824</v>
+        <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="E267" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F267" t="s">
         <v>19</v>
@@ -4856,19 +4880,19 @@
     </row>
     <row r="270" spans="1:8">
       <c r="B270" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="C270" t="n">
-        <v>3.667</v>
+        <v>3.824</v>
       </c>
       <c r="D270" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="E270" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F270" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="G270" t="s">
         <v>19</v>
@@ -4884,19 +4908,19 @@
     </row>
     <row r="273" spans="1:8">
       <c r="B273" t="s">
+        <v>317</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D273" t="s">
         <v>443</v>
       </c>
-      <c r="C273" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D273" t="s">
-        <v>40</v>
-      </c>
       <c r="E273" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="G273" t="s">
         <v>19</v>
@@ -4912,16 +4936,16 @@
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C276" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D276" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E276" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -4935,127 +4959,86 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="B279" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C279" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D279" t="s">
+        <v>78</v>
+      </c>
+      <c r="E279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F279" t="s">
+        <v>19</v>
+      </c>
+      <c r="G279" t="s">
+        <v>19</v>
+      </c>
+      <c r="H279" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
         <v>447</v>
-      </c>
-      <c r="E279" t="s">
-        <v>19</v>
-      </c>
-      <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>19</v>
-      </c>
-      <c r="H279" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="B280" t="s">
-        <v>449</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D280" t="s">
-        <v>275</v>
-      </c>
-      <c r="E280" t="s">
-        <v>124</v>
-      </c>
-      <c r="F280" t="s">
-        <v>19</v>
-      </c>
-      <c r="G280" t="s">
-        <v>19</v>
-      </c>
-      <c r="H280" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>210</v>
-      </c>
-      <c r="C281" t="n">
-        <v>4</v>
-      </c>
-      <c r="D281" t="s">
-        <v>78</v>
-      </c>
-      <c r="E281" t="s">
-        <v>19</v>
-      </c>
-      <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>19</v>
-      </c>
-      <c r="H281" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="B282" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
       <c r="C282" t="n">
-        <v>3.786</v>
+        <v>3.75</v>
       </c>
       <c r="D282" t="s">
+        <v>449</v>
+      </c>
+      <c r="E282" t="s">
+        <v>19</v>
+      </c>
+      <c r="F282" t="s">
+        <v>19</v>
+      </c>
+      <c r="G282" t="s">
+        <v>19</v>
+      </c>
+      <c r="H282" t="s">
         <v>450</v>
-      </c>
-      <c r="E282" t="s">
-        <v>451</v>
-      </c>
-      <c r="F282" t="s">
-        <v>19</v>
-      </c>
-      <c r="G282" t="s">
-        <v>19</v>
-      </c>
-      <c r="H282" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C283" t="n">
-        <v>3.375</v>
+        <v>3.5</v>
       </c>
       <c r="D283" t="s">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="E283" t="s">
-        <v>411</v>
+        <v>124</v>
       </c>
       <c r="F283" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="G283" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="H283" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C284" t="n">
         <v>4</v>
@@ -5078,19 +5061,19 @@
     </row>
     <row r="285" spans="1:8">
       <c r="B285" t="s">
+        <v>233</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D285" t="s">
+        <v>452</v>
+      </c>
+      <c r="E285" t="s">
         <v>453</v>
       </c>
-      <c r="C285" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="D285" t="s">
-        <v>280</v>
-      </c>
-      <c r="E285" t="s">
-        <v>448</v>
-      </c>
       <c r="F285" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="G285" t="s">
         <v>19</v>
@@ -5101,39 +5084,39 @@
     </row>
     <row r="286" spans="1:8">
       <c r="B286" t="s">
-        <v>116</v>
+        <v>441</v>
       </c>
       <c r="C286" t="n">
-        <v>3.55</v>
+        <v>3.375</v>
       </c>
       <c r="D286" t="s">
-        <v>275</v>
+        <v>454</v>
       </c>
       <c r="E286" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="G286" t="s">
-        <v>265</v>
+        <v>450</v>
       </c>
       <c r="H286" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
-        <v>454</v>
+        <v>156</v>
       </c>
       <c r="C287" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="E287" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F287" t="s">
         <v>19</v>
@@ -5147,19 +5130,19 @@
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="C288" t="n">
-        <v>3.9815</v>
+        <v>3.812</v>
       </c>
       <c r="D288" t="s">
-        <v>455</v>
+        <v>282</v>
       </c>
       <c r="E288" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F288" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="G288" t="s">
         <v>19</v>
@@ -5170,412 +5153,412 @@
     </row>
     <row r="289" spans="1:8">
       <c r="B289" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="D289" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="E289" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="F289" t="s">
         <v>19</v>
       </c>
       <c r="G289" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="H289" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
+        <v>456</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" t="s">
+        <v>51</v>
+      </c>
+      <c r="F290" t="s">
+        <v>19</v>
+      </c>
+      <c r="G290" t="s">
+        <v>19</v>
+      </c>
+      <c r="H290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>335</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.9815</v>
+      </c>
+      <c r="D291" t="s">
         <v>457</v>
       </c>
-      <c r="C290" t="n">
+      <c r="E291" t="s">
+        <v>458</v>
+      </c>
+      <c r="F291" t="s">
+        <v>19</v>
+      </c>
+      <c r="G291" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="B292" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" t="n">
         <v>4</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D292" t="s">
         <v>78</v>
       </c>
-      <c r="E290" t="s">
-        <v>19</v>
-      </c>
-      <c r="F290" t="s">
-        <v>19</v>
-      </c>
-      <c r="G290" t="s">
-        <v>19</v>
-      </c>
-      <c r="H290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>458</v>
+      <c r="E292" t="s">
+        <v>19</v>
+      </c>
+      <c r="F292" t="s">
+        <v>19</v>
+      </c>
+      <c r="G292" t="s">
+        <v>19</v>
+      </c>
+      <c r="H292" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="B293" t="s">
-        <v>210</v>
+        <v>459</v>
       </c>
       <c r="C293" t="n">
-        <v>2.632</v>
+        <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="E293" t="s">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="F293" t="s">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="G293" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H293" t="s">
-        <v>462</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="B296" t="s">
+        <v>210</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="D296" t="s">
+        <v>461</v>
+      </c>
+      <c r="E296" t="s">
+        <v>462</v>
+      </c>
+      <c r="F296" t="s">
+        <v>463</v>
+      </c>
+      <c r="G296" t="s">
+        <v>160</v>
+      </c>
+      <c r="H296" t="s">
         <v>464</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2.836</v>
-      </c>
-      <c r="D296" t="s">
-        <v>465</v>
-      </c>
-      <c r="E296" t="s">
-        <v>466</v>
-      </c>
-      <c r="F296" t="s">
-        <v>467</v>
-      </c>
-      <c r="G296" t="s">
-        <v>166</v>
-      </c>
-      <c r="H296" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
+        <v>466</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.836</v>
+      </c>
+      <c r="D299" t="s">
+        <v>467</v>
+      </c>
+      <c r="E299" t="s">
+        <v>468</v>
+      </c>
+      <c r="F299" t="s">
         <v>469</v>
       </c>
-      <c r="C299" t="n">
-        <v>3.312</v>
-      </c>
-      <c r="D299" t="s">
-        <v>40</v>
-      </c>
-      <c r="E299" t="s">
-        <v>470</v>
-      </c>
-      <c r="F299" t="s">
-        <v>19</v>
-      </c>
       <c r="G299" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="H299" t="s">
-        <v>448</v>
+        <v>190</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
+        <v>471</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.312</v>
+      </c>
+      <c r="D302" t="s">
+        <v>40</v>
+      </c>
+      <c r="E302" t="s">
         <v>472</v>
       </c>
-      <c r="C302" t="n">
+      <c r="F302" t="s">
+        <v>19</v>
+      </c>
+      <c r="G302" t="s">
+        <v>19</v>
+      </c>
+      <c r="H302" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
+        <v>474</v>
+      </c>
+      <c r="C305" t="n">
         <v>3.8</v>
       </c>
-      <c r="D302" t="s">
-        <v>473</v>
-      </c>
-      <c r="E302" t="s">
-        <v>262</v>
-      </c>
-      <c r="F302" t="s">
-        <v>262</v>
-      </c>
-      <c r="G302" t="s">
-        <v>19</v>
-      </c>
-      <c r="H302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="B303" t="s">
+      <c r="D305" t="s">
+        <v>475</v>
+      </c>
+      <c r="E305" t="s">
+        <v>264</v>
+      </c>
+      <c r="F305" t="s">
+        <v>264</v>
+      </c>
+      <c r="G305" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
         <v>59</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C306" t="n">
         <v>3.083</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D306" t="s">
         <v>60</v>
       </c>
-      <c r="E303" t="s">
-        <v>474</v>
-      </c>
-      <c r="F303" t="s">
+      <c r="E306" t="s">
+        <v>476</v>
+      </c>
+      <c r="F306" t="s">
         <v>235</v>
       </c>
-      <c r="G303" t="s">
-        <v>19</v>
-      </c>
-      <c r="H303" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="B304" t="s">
-        <v>475</v>
-      </c>
-      <c r="C304" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="D304" t="s">
-        <v>476</v>
-      </c>
-      <c r="E304" t="s">
-        <v>260</v>
-      </c>
-      <c r="F304" t="s">
-        <v>262</v>
-      </c>
-      <c r="G304" t="s">
-        <v>19</v>
-      </c>
-      <c r="H304" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>477</v>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="B307" t="s">
+        <v>477</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="D307" t="s">
         <v>478</v>
       </c>
-      <c r="C307" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
+        <v>263</v>
+      </c>
+      <c r="F307" t="s">
         <v>264</v>
       </c>
-      <c r="E307" t="s">
-        <v>479</v>
-      </c>
-      <c r="F307" t="s">
-        <v>265</v>
-      </c>
       <c r="G307" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="H307" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="B310" t="s">
+        <v>480</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D310" t="s">
+        <v>266</v>
+      </c>
+      <c r="E310" t="s">
         <v>481</v>
       </c>
-      <c r="C310" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D310" t="s">
-        <v>406</v>
-      </c>
-      <c r="E310" t="s">
-        <v>399</v>
-      </c>
       <c r="F310" t="s">
-        <v>482</v>
+        <v>267</v>
       </c>
       <c r="G310" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="H310" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>198</v>
+        <v>483</v>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>3.182</v>
       </c>
       <c r="D313" t="s">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="E313" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
+        <v>484</v>
       </c>
       <c r="G313" t="s">
         <v>19</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="B316" t="s">
-        <v>486</v>
+        <v>198</v>
       </c>
       <c r="C316" t="n">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="D316" t="s">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="E316" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F316" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="G316" t="s">
-        <v>488</v>
+        <v>19</v>
       </c>
       <c r="H316" t="s">
-        <v>488</v>
+        <v>19</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="B319" t="s">
+        <v>488</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D319" t="s">
+        <v>489</v>
+      </c>
+      <c r="E319" t="s">
+        <v>204</v>
+      </c>
+      <c r="F319" t="s">
+        <v>230</v>
+      </c>
+      <c r="G319" t="s">
         <v>490</v>
       </c>
-      <c r="C319" t="n">
-        <v>3.242</v>
-      </c>
-      <c r="D319" t="s">
-        <v>40</v>
-      </c>
-      <c r="E319" t="s">
+      <c r="H319" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" t="s">
         <v>491</v>
-      </c>
-      <c r="F319" t="s">
-        <v>60</v>
-      </c>
-      <c r="G319" t="s">
-        <v>483</v>
-      </c>
-      <c r="H319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>472</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D320" t="s">
-        <v>492</v>
-      </c>
-      <c r="E320" t="s">
-        <v>493</v>
-      </c>
-      <c r="F320" t="s">
-        <v>494</v>
-      </c>
-      <c r="G320" t="s">
-        <v>495</v>
-      </c>
-      <c r="H320" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="B321" t="s">
-        <v>497</v>
-      </c>
-      <c r="C321" t="n">
-        <v>2.822</v>
-      </c>
-      <c r="D321" t="s">
-        <v>479</v>
-      </c>
-      <c r="E321" t="s">
-        <v>498</v>
-      </c>
-      <c r="F321" t="s">
-        <v>499</v>
-      </c>
-      <c r="G321" t="s">
-        <v>124</v>
-      </c>
-      <c r="H321" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="B322" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C322" t="n">
-        <v>3.356</v>
+        <v>3.242</v>
       </c>
       <c r="D322" t="s">
-        <v>501</v>
+        <v>40</v>
       </c>
       <c r="E322" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F322" t="s">
-        <v>503</v>
+        <v>60</v>
       </c>
       <c r="G322" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="H322" t="s">
         <v>19</v>
@@ -5583,541 +5566,633 @@
     </row>
     <row r="323" spans="1:8">
       <c r="B323" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="C323" t="n">
-        <v>2.736</v>
+        <v>3.121</v>
       </c>
       <c r="D323" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E323" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F323" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G323" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H323" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C324" t="n">
-        <v>3.382</v>
+        <v>2.822</v>
       </c>
       <c r="D324" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="E324" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F324" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G324" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="H324" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="325" spans="1:8">
       <c r="B325" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C325" t="n">
-        <v>3.143</v>
+        <v>3.356</v>
       </c>
       <c r="D325" t="s">
-        <v>171</v>
+        <v>503</v>
       </c>
       <c r="E325" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F325" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G325" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="H325" t="s">
-        <v>519</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="B326" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="C326" t="n">
-        <v>2.228</v>
+        <v>2.736</v>
       </c>
       <c r="D326" t="s">
-        <v>366</v>
+        <v>508</v>
       </c>
       <c r="E326" t="s">
+        <v>509</v>
+      </c>
+      <c r="F326" t="s">
+        <v>510</v>
+      </c>
+      <c r="G326" t="s">
+        <v>511</v>
+      </c>
+      <c r="H326" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>513</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="D327" t="s">
+        <v>514</v>
+      </c>
+      <c r="E327" t="s">
+        <v>515</v>
+      </c>
+      <c r="F327" t="s">
+        <v>516</v>
+      </c>
+      <c r="G327" t="s">
+        <v>19</v>
+      </c>
+      <c r="H327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="B328" t="s">
+        <v>517</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.4625</v>
+      </c>
+      <c r="D328" t="s">
+        <v>518</v>
+      </c>
+      <c r="E328" t="s">
+        <v>519</v>
+      </c>
+      <c r="F328" t="s">
         <v>520</v>
       </c>
-      <c r="F326" t="s">
+      <c r="G328" t="s">
         <v>521</v>
       </c>
-      <c r="G326" t="s">
-        <v>45</v>
-      </c>
-      <c r="H326" t="s">
+      <c r="H328" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="B329" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C329" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D329" t="s">
+        <v>171</v>
+      </c>
+      <c r="E329" t="s">
+        <v>524</v>
+      </c>
+      <c r="F329" t="s">
+        <v>525</v>
+      </c>
+      <c r="G329" t="s">
+        <v>526</v>
+      </c>
+      <c r="H329" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="B330" t="s">
+        <v>483</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="D330" t="s">
+        <v>368</v>
+      </c>
+      <c r="E330" t="s">
+        <v>528</v>
+      </c>
+      <c r="F330" t="s">
+        <v>529</v>
+      </c>
+      <c r="G330" t="s">
+        <v>45</v>
+      </c>
+      <c r="H330" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>523</v>
+      </c>
+      <c r="C333" t="n">
         <v>3.6016</v>
       </c>
-      <c r="D329" t="s">
-        <v>524</v>
-      </c>
-      <c r="E329" t="s">
-        <v>525</v>
-      </c>
-      <c r="F329" t="s">
-        <v>526</v>
-      </c>
-      <c r="G329" t="s">
-        <v>527</v>
-      </c>
-      <c r="H329" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>530</v>
-      </c>
-      <c r="C332" t="n">
+      <c r="D333" t="s">
+        <v>532</v>
+      </c>
+      <c r="E333" t="s">
+        <v>533</v>
+      </c>
+      <c r="F333" t="s">
+        <v>534</v>
+      </c>
+      <c r="G333" t="s">
+        <v>535</v>
+      </c>
+      <c r="H333" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="B336" t="s">
+        <v>538</v>
+      </c>
+      <c r="C336" t="n">
         <v>3.5625</v>
       </c>
-      <c r="D332" t="s">
-        <v>531</v>
-      </c>
-      <c r="E332" t="s">
-        <v>298</v>
-      </c>
-      <c r="F332" t="s">
+      <c r="D336" t="s">
+        <v>539</v>
+      </c>
+      <c r="E336" t="s">
+        <v>300</v>
+      </c>
+      <c r="F336" t="s">
         <v>254</v>
       </c>
-      <c r="G332" t="s">
-        <v>424</v>
-      </c>
-      <c r="H332" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="B335" t="s">
-        <v>533</v>
-      </c>
-      <c r="C335" t="n">
+      <c r="G336" t="s">
+        <v>426</v>
+      </c>
+      <c r="H336" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="B339" t="s">
+        <v>541</v>
+      </c>
+      <c r="C339" t="n">
         <v>3.118</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D339" t="s">
         <v>36</v>
       </c>
-      <c r="E335" t="s">
-        <v>534</v>
-      </c>
-      <c r="F335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335" t="s">
+      <c r="E339" t="s">
+        <v>542</v>
+      </c>
+      <c r="F339" t="s">
+        <v>19</v>
+      </c>
+      <c r="G339" t="s">
         <v>23</v>
       </c>
-      <c r="H335" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="B338" t="s">
-        <v>536</v>
-      </c>
-      <c r="C338" t="n">
+      <c r="H339" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="B342" t="s">
+        <v>544</v>
+      </c>
+      <c r="C342" t="n">
         <v>3.21</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D342" t="s">
         <v>66</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E342" t="s">
         <v>44</v>
       </c>
-      <c r="F338" t="s">
-        <v>537</v>
-      </c>
-      <c r="G338" t="s">
-        <v>19</v>
-      </c>
-      <c r="H338" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="A340" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="B341" t="s">
-        <v>536</v>
-      </c>
-      <c r="C341" t="n">
+      <c r="F342" t="s">
+        <v>545</v>
+      </c>
+      <c r="G342" t="s">
+        <v>19</v>
+      </c>
+      <c r="H342" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="B345" t="s">
+        <v>544</v>
+      </c>
+      <c r="C345" t="n">
         <v>3</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D345" t="s">
         <v>91</v>
       </c>
-      <c r="E341" t="s">
-        <v>539</v>
-      </c>
-      <c r="F341" t="s">
+      <c r="E345" t="s">
+        <v>547</v>
+      </c>
+      <c r="F345" t="s">
         <v>230</v>
       </c>
-      <c r="G341" t="s">
-        <v>19</v>
-      </c>
-      <c r="H341" t="s">
+      <c r="G345" t="s">
+        <v>19</v>
+      </c>
+      <c r="H345" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
-      <c r="A343" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
-      <c r="B344" t="s">
-        <v>481</v>
-      </c>
-      <c r="C344" t="n">
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>483</v>
+      </c>
+      <c r="C348" t="n">
         <v>3.4665</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D348" t="s">
+        <v>549</v>
+      </c>
+      <c r="E348" t="s">
+        <v>27</v>
+      </c>
+      <c r="F348" t="s">
+        <v>19</v>
+      </c>
+      <c r="G348" t="s">
+        <v>550</v>
+      </c>
+      <c r="H348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="B351" t="s">
+        <v>523</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D351" t="s">
+        <v>299</v>
+      </c>
+      <c r="E351" t="s">
+        <v>300</v>
+      </c>
+      <c r="F351" t="s">
+        <v>19</v>
+      </c>
+      <c r="G351" t="s">
+        <v>19</v>
+      </c>
+      <c r="H351" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="B354" t="s">
+        <v>480</v>
+      </c>
+      <c r="C354" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D354" t="s">
+        <v>553</v>
+      </c>
+      <c r="E354" t="s">
+        <v>554</v>
+      </c>
+      <c r="F354" t="s">
+        <v>19</v>
+      </c>
+      <c r="G354" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="B357" t="s">
         <v>541</v>
       </c>
-      <c r="E344" t="s">
-        <v>27</v>
-      </c>
-      <c r="F344" t="s">
-        <v>19</v>
-      </c>
-      <c r="G344" t="s">
-        <v>542</v>
-      </c>
-      <c r="H344" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="A346" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
-      <c r="B347" t="s">
-        <v>515</v>
-      </c>
-      <c r="C347" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D347" t="s">
-        <v>297</v>
-      </c>
-      <c r="E347" t="s">
-        <v>298</v>
-      </c>
-      <c r="F347" t="s">
-        <v>19</v>
-      </c>
-      <c r="G347" t="s">
-        <v>19</v>
-      </c>
-      <c r="H347" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="B350" t="s">
+      <c r="C357" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D357" t="s">
         <v>478</v>
       </c>
-      <c r="C350" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D350" t="s">
-        <v>545</v>
-      </c>
-      <c r="E350" t="s">
-        <v>546</v>
-      </c>
-      <c r="F350" t="s">
-        <v>19</v>
-      </c>
-      <c r="G350" t="s">
-        <v>19</v>
-      </c>
-      <c r="H350" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
-        <v>533</v>
-      </c>
-      <c r="C353" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D353" t="s">
-        <v>476</v>
-      </c>
-      <c r="E353" t="s">
+      <c r="E357" t="s">
         <v>199</v>
       </c>
-      <c r="F353" t="s">
-        <v>262</v>
-      </c>
-      <c r="G353" t="s">
-        <v>19</v>
-      </c>
-      <c r="H353" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="B356" t="s">
-        <v>469</v>
-      </c>
-      <c r="C356" t="n">
+      <c r="F357" t="s">
+        <v>264</v>
+      </c>
+      <c r="G357" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>471</v>
+      </c>
+      <c r="C360" t="n">
         <v>3.143</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D360" t="s">
         <v>171</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E360" t="s">
         <v>171</v>
       </c>
-      <c r="F356" t="s">
-        <v>19</v>
-      </c>
-      <c r="G356" t="s">
-        <v>546</v>
-      </c>
-      <c r="H356" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="B359" t="s">
-        <v>550</v>
-      </c>
-      <c r="C359" t="n">
+      <c r="F360" t="s">
+        <v>19</v>
+      </c>
+      <c r="G360" t="s">
+        <v>554</v>
+      </c>
+      <c r="H360" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="B363" t="s">
+        <v>558</v>
+      </c>
+      <c r="C363" t="n">
         <v>2.4765</v>
       </c>
-      <c r="D359" t="s">
-        <v>19</v>
-      </c>
-      <c r="E359" t="s">
-        <v>551</v>
-      </c>
-      <c r="F359" t="s">
-        <v>411</v>
-      </c>
-      <c r="G359" t="s">
-        <v>19</v>
-      </c>
-      <c r="H359" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="B362" t="s">
-        <v>553</v>
-      </c>
-      <c r="C362" t="n">
+      <c r="D363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" t="s">
+        <v>559</v>
+      </c>
+      <c r="F363" t="s">
+        <v>413</v>
+      </c>
+      <c r="G363" t="s">
+        <v>19</v>
+      </c>
+      <c r="H363" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="B366" t="s">
+        <v>561</v>
+      </c>
+      <c r="C366" t="n">
         <v>3.889</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D366" t="s">
         <v>253</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E366" t="s">
         <v>230</v>
       </c>
-      <c r="F362" t="s">
-        <v>19</v>
-      </c>
-      <c r="G362" t="s">
-        <v>19</v>
-      </c>
-      <c r="H362" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="B365" t="s">
-        <v>555</v>
-      </c>
-      <c r="C365" t="n">
+      <c r="F366" t="s">
+        <v>19</v>
+      </c>
+      <c r="G366" t="s">
+        <v>19</v>
+      </c>
+      <c r="H366" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="B369" t="s">
+        <v>563</v>
+      </c>
+      <c r="C369" t="n">
         <v>3.833</v>
       </c>
-      <c r="D365" t="s">
-        <v>414</v>
-      </c>
-      <c r="E365" t="s">
+      <c r="D369" t="s">
+        <v>416</v>
+      </c>
+      <c r="E369" t="s">
         <v>60</v>
       </c>
-      <c r="F365" t="s">
-        <v>19</v>
-      </c>
-      <c r="G365" t="s">
-        <v>19</v>
-      </c>
-      <c r="H365" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="B368" t="s">
-        <v>557</v>
-      </c>
-      <c r="C368" t="n">
+      <c r="F369" t="s">
+        <v>19</v>
+      </c>
+      <c r="G369" t="s">
+        <v>19</v>
+      </c>
+      <c r="H369" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
+        <v>565</v>
+      </c>
+      <c r="C372" t="n">
         <v>4</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D372" t="s">
         <v>78</v>
       </c>
-      <c r="E368" t="s">
-        <v>19</v>
-      </c>
-      <c r="F368" t="s">
-        <v>19</v>
-      </c>
-      <c r="G368" t="s">
-        <v>19</v>
-      </c>
-      <c r="H368" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="A370" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="B371" t="s">
-        <v>559</v>
-      </c>
-      <c r="C371" t="n">
+      <c r="E372" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" t="s">
+        <v>19</v>
+      </c>
+      <c r="G372" t="s">
+        <v>19</v>
+      </c>
+      <c r="H372" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="B375" t="s">
+        <v>567</v>
+      </c>
+      <c r="C375" t="n">
         <v>4</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D375" t="s">
         <v>78</v>
       </c>
-      <c r="E371" t="s">
-        <v>19</v>
-      </c>
-      <c r="F371" t="s">
-        <v>19</v>
-      </c>
-      <c r="G371" t="s">
-        <v>19</v>
-      </c>
-      <c r="H371" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="A373" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
-      <c r="B374" t="s">
-        <v>561</v>
-      </c>
-      <c r="C374" t="n">
+      <c r="E375" t="s">
+        <v>19</v>
+      </c>
+      <c r="F375" t="s">
+        <v>19</v>
+      </c>
+      <c r="G375" t="s">
+        <v>19</v>
+      </c>
+      <c r="H375" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="B378" t="s">
+        <v>569</v>
+      </c>
+      <c r="C378" t="n">
         <v>4</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D378" t="s">
         <v>78</v>
       </c>
-      <c r="E374" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" t="s">
-        <v>19</v>
-      </c>
-      <c r="G374" t="s">
-        <v>19</v>
-      </c>
-      <c r="H374" t="s">
+      <c r="E378" t="s">
+        <v>19</v>
+      </c>
+      <c r="F378" t="s">
+        <v>19</v>
+      </c>
+      <c r="G378" t="s">
+        <v>19</v>
+      </c>
+      <c r="H378" t="s">
         <v>19</v>
       </c>
     </row>
